--- a/20180126_SmartCut/NonlinearCut/time history/PEERNGARecords_Unscaled/timeh_history PGA PGV.xlsx
+++ b/20180126_SmartCut/NonlinearCut/time history/PEERNGARecords_Unscaled/timeh_history PGA PGV.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\NonlinearCut\time history\PEERNGARecords_Unscaled\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939C952B-E34D-4071-932E-DA41A5890F56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$43</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
   <si>
     <t>RSN960_NORTHR_LOS270</t>
   </si>
@@ -181,14 +189,17 @@
   <si>
     <t>NPGA</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -242,7 +253,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,11 +535,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="F1" sqref="F1:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,7 +548,7 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -550,8 +561,20 @@
       <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -564,8 +587,20 @@
       <c r="D2" s="1">
         <v>1.0349999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>21.707000000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.0349999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -578,8 +613,20 @@
       <c r="D3" s="1">
         <v>1.151</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="H3" s="1">
+        <v>30.504999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -592,8 +639,20 @@
       <c r="D4" s="1">
         <v>1.5640000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>26.311</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -606,8 +665,20 @@
       <c r="D5" s="1">
         <v>1.0329999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.379</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44.587000000000003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -620,8 +691,20 @@
       <c r="D6" s="1">
         <v>0.89600000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>41.773000000000003</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -634,8 +717,20 @@
       <c r="D7" s="1">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>29.001000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -648,8 +743,20 @@
       <c r="D8" s="1">
         <v>1.0189999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>38.006999999999998</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -662,8 +769,20 @@
       <c r="D9" s="1">
         <v>0.85099999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45.404000000000003</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -676,8 +795,20 @@
       <c r="D10" s="1">
         <v>0.74399999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43.396999999999998</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -690,8 +821,20 @@
       <c r="D11" s="1">
         <v>0.621</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="H11" s="1">
+        <v>51.098999999999997</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -704,8 +847,20 @@
       <c r="D12" s="1">
         <v>1.1539999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>66.683000000000007</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -718,8 +873,20 @@
       <c r="D13" s="1">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44.360999999999997</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -732,8 +899,20 @@
       <c r="D14" s="1">
         <v>1.345</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46.801000000000002</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -746,8 +925,20 @@
       <c r="D15" s="1">
         <v>1.482</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>31.311</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -760,8 +951,20 @@
       <c r="D16" s="1">
         <v>1.5409999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>40.045999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -774,8 +977,20 @@
       <c r="D17" s="1">
         <v>0.81100000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="H17" s="1">
+        <v>58.837000000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -788,8 +1003,20 @@
       <c r="D18" s="1">
         <v>1.028</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="H18" s="1">
+        <v>109.15600000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,8 +1029,20 @@
       <c r="D19" s="1">
         <v>0.96099999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H19" s="1">
+        <v>50.058</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -816,8 +1055,20 @@
       <c r="D20" s="1">
         <v>0.47899999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H20" s="1">
+        <v>65.849000000000004</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -830,8 +1081,20 @@
       <c r="D21" s="1">
         <v>0.52200000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="H21" s="1">
+        <v>50.564999999999998</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -844,8 +1107,20 @@
       <c r="D22" s="1">
         <v>0.748</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44.753999999999998</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -859,7 +1134,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -873,7 +1148,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +1162,7 @@
         <v>1.147</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -901,7 +1176,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -915,7 +1190,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -929,7 +1204,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -943,7 +1218,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -957,7 +1232,7 @@
         <v>1.506</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -971,7 +1246,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1140,7 +1415,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition descending="1" ref="D2:D43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1150,11 +1425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1453,4 +1728,721 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B2BE0F-A4A0-4B22-B541-FC3B3D53E38D}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21.707000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <f>MEDIAN(C$2:C$11)</f>
+        <v>39.89</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2/C2</f>
+        <v>1.837656055650251</v>
+      </c>
+      <c r="G2" s="1">
+        <f>B2*F2</f>
+        <v>0.41347261252130652</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>1.837656055650251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30.504999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E11" si="0">MEDIAN(C$2:C$11)</f>
+        <v>39.89</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F11" si="1">E3/C3</f>
+        <v>1.3076544828716605</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G11" si="2">B3*F3</f>
+        <v>0.41191116210457307</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>1.3076544828716605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>26.311</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E22" si="3">MEDIAN(C$2:C$11)</f>
+        <v>39.89</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F22" si="4">E4/C4</f>
+        <v>1.5160959294591616</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G22" si="5">B4*F4</f>
+        <v>0.35779863935236211</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>1.5160959294591616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.379</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44.587000000000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.89465539282750572</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.33907439388162469</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>0.89465539282750572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41.773000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.621</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.9549230364110789</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.24732506643046945</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>0.9549230364110789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>29.001000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3754698113858141</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3933843660563428</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>1.3754698113858141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>38.006999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.345</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0495435051437894</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53631673112847633</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>1.0495435051437894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45.404000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.87855695533433176</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.32330895956303407</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>0.87855695533433176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43.396999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.91918796230154165</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.38330138027974286</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0.91918796230154165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="C11" s="1">
+        <v>51.098999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.78064149983365627</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.19125716745924579</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>0.78064149983365627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>66.683000000000007</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.59820344015716143</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.29192327879669477</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>0.59820344015716143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44.360999999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.89921327291990716</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36328216225964249</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>0.89921327291990716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>46.801000000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.85233221512360846</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41167645990470286</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0.85233221512360846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>31.311</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="4"/>
+        <v>1.273993165341254</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.28664846220178214</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15">
+        <v>1.273993165341254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>40.045999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.99610447984817463</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1334780002996554</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16">
+        <v>0.99610447984817463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="C17" s="1">
+        <v>58.837000000000003</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.67797474378367351</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.21152812006050614</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>0.67797474378367351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>109.15600000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.36544028729524713</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.14544523434350837</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18">
+        <v>0.36544028729524713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C19" s="1">
+        <v>50.058</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.79687562427584002</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.37692217028247232</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <v>0.79687562427584002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="C20" s="1">
+        <v>65.849000000000004</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.224</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.60577989035520663</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48825859162629659</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.60577989035520663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="C21" s="1">
+        <v>50.564999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.78888559280134485</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.39207613962226839</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>0.78888559280134485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44.753999999999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>39.89</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.89131697725342995</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.29235196853912504</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22">
+        <v>0.89131697725342995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/20180126_SmartCut/NonlinearCut/time history/PEERNGARecords_Unscaled/timeh_history PGA PGV.xlsx
+++ b/20180126_SmartCut/NonlinearCut/time history/PEERNGARecords_Unscaled/timeh_history PGA PGV.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\NonlinearCut\time history\PEERNGARecords_Unscaled\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939C952B-E34D-4071-932E-DA41A5890F56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$43</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>RSN960_NORTHR_LOS270</t>
   </si>
@@ -189,15 +188,12 @@
   <si>
     <t>NPGA</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NMi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
@@ -535,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -548,7 +544,7 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -561,20 +557,17 @@
       <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -587,20 +580,20 @@
       <c r="D2" s="1">
         <v>1.0349999999999999</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
+      <c r="E2" s="1">
+        <f>MEDIAN(C$2:C$43)</f>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2/C2</f>
+        <v>1.9100059888515226</v>
       </c>
       <c r="G2" s="1">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="H2" s="1">
-        <v>21.707000000000001</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.0349999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>B2*F2</f>
+        <v>0.42975134749159261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -613,20 +606,20 @@
       <c r="D3" s="1">
         <v>1.151</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E43" si="0">MEDIAN(C$2:C$43)</f>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F43" si="1">E3/C3</f>
+        <v>2.4489367985823982</v>
       </c>
       <c r="G3" s="1">
-        <v>0.315</v>
-      </c>
-      <c r="H3" s="1">
-        <v>30.504999999999999</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.0329999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G3:G43" si="2">B3*F3</f>
+        <v>0.47754267572356768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -639,20 +632,20 @@
       <c r="D4" s="1">
         <v>1.5640000000000001</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>1.815417286977844</v>
       </c>
       <c r="G4" s="1">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>26.311</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.64810397145109022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -665,20 +658,20 @@
       <c r="D5" s="1">
         <v>1.0329999999999999</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3591378462547126</v>
       </c>
       <c r="G5" s="1">
-        <v>0.379</v>
-      </c>
-      <c r="H5" s="1">
-        <v>44.587000000000003</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.85099999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.42812842157023445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -691,20 +684,20 @@
       <c r="D6" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5757857930143286</v>
       </c>
       <c r="G6" s="1">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="H6" s="1">
-        <v>41.773000000000003</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.37188544715138155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -717,20 +710,20 @@
       <c r="D7" s="1">
         <v>1.06</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2570644594020983</v>
       </c>
       <c r="G7" s="1">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="H7" s="1">
-        <v>29.001000000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.43997256079073438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -743,20 +736,20 @@
       <c r="D8" s="1">
         <v>1.0189999999999999</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1516805555555556</v>
       </c>
       <c r="G8" s="1">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>38.006999999999998</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.42266676388888891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -769,20 +762,20 @@
       <c r="D9" s="1">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92987866418462783</v>
       </c>
       <c r="G9" s="1">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>45.404000000000003</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.81100000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.35242401372597393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -795,20 +788,20 @@
       <c r="D10" s="1">
         <v>0.74399999999999999</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.86293343878782836</v>
       </c>
       <c r="G10" s="1">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="H10" s="1">
-        <v>43.396999999999998</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.96099999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.30806723764725469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -821,20 +814,20 @@
       <c r="D11" s="1">
         <v>0.621</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9925190912790558</v>
       </c>
       <c r="G11" s="1">
-        <v>0.245</v>
-      </c>
-      <c r="H11" s="1">
-        <v>51.098999999999997</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.47899999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.25706244464127548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -847,20 +840,20 @@
       <c r="D12" s="1">
         <v>1.1539999999999999</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0075945367940118</v>
       </c>
       <c r="G12" s="1">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="H12" s="1">
-        <v>66.683000000000007</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.47860740497715559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -873,20 +866,20 @@
       <c r="D13" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4296231164442605</v>
       </c>
       <c r="G13" s="1">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="H13" s="1">
-        <v>44.360999999999997</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.40887221130305851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,20 +892,20 @@
       <c r="D14" s="1">
         <v>1.345</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>3</v>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0908648406872419</v>
       </c>
       <c r="G14" s="1">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="H14" s="1">
-        <v>46.801000000000002</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1.0329999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.5574319335911806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -925,20 +918,20 @@
       <c r="D15" s="1">
         <v>1.482</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4007398898611441</v>
       </c>
       <c r="G15" s="1">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="H15" s="1">
-        <v>31.311</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.61492481164904222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -951,20 +944,20 @@
       <c r="D16" s="1">
         <v>1.5409999999999999</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1425717198996888</v>
       </c>
       <c r="G16" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="H16" s="1">
-        <v>40.045999999999999</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.63869759142392613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -977,20 +970,20 @@
       <c r="D17" s="1">
         <v>0.81100000000000005</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>35</v>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91314641881772529</v>
       </c>
       <c r="G17" s="1">
-        <v>0.312</v>
-      </c>
-      <c r="H17" s="1">
-        <v>58.837000000000003</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.33603788212492292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,20 +996,20 @@
       <c r="D18" s="1">
         <v>1.028</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5021376037100107</v>
       </c>
       <c r="G18" s="1">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="H18" s="1">
-        <v>109.15600000000001</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.42660707945364301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1029,20 +1022,20 @@
       <c r="D19" s="1">
         <v>0.96099999999999997</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>38</v>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95537709979952545</v>
       </c>
       <c r="G19" s="1">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="H19" s="1">
-        <v>50.058</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.3983922506164021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1055,20 +1048,20 @@
       <c r="D20" s="1">
         <v>0.47899999999999998</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81137595647664351</v>
       </c>
       <c r="G20" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="H20" s="1">
-        <v>65.849000000000004</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.19878710933677765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1081,20 +1074,20 @@
       <c r="D21" s="1">
         <v>0.52200000000000002</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>39</v>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4259845227858987</v>
       </c>
       <c r="G21" s="1">
-        <v>0.497</v>
-      </c>
-      <c r="H21" s="1">
-        <v>50.564999999999998</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.2167496474634566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1107,20 +1100,20 @@
       <c r="D22" s="1">
         <v>0.748</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>41</v>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.69957816586518184</v>
       </c>
       <c r="G22" s="1">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="H22" s="1">
-        <v>44.753999999999998</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.73299999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.30991312747827554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1133,8 +1126,20 @@
       <c r="D23" s="1">
         <v>0.73199999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62175516998335412</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30341652295187682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1147,8 +1152,20 @@
       <c r="D24" s="1">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93461599152408659</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37758486057573099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,8 +1178,20 @@
       <c r="D25" s="1">
         <v>1.147</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0085995085995088</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47605896805896808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1175,8 +1204,20 @@
       <c r="D26" s="1">
         <v>1.0329999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88588919040191449</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42788447896412468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1189,8 +1230,20 @@
       <c r="D27" s="1">
         <v>1.214</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0841330439557566</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50303773239547112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1203,8 +1256,20 @@
       <c r="D28" s="1">
         <v>0.71899999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3241512567468303</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29793403276803682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1217,8 +1282,20 @@
       <c r="D29" s="1">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9016833318044217</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44309221631043028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1231,8 +1308,20 @@
       <c r="D30" s="1">
         <v>1.506</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9729313064678045</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.62431557435823892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1245,8 +1334,20 @@
       <c r="D31" s="1">
         <v>0.33500000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0353218798381862</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13873313189831696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1259,8 +1360,20 @@
       <c r="D32" s="1">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70466713122694902</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21985614494280808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1273,8 +1386,20 @@
       <c r="D33" s="1">
         <v>0.65500000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74525012133086477</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27127104416443476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1287,8 +1412,20 @@
       <c r="D34" s="1">
         <v>0.52300000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63817784413625389</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21698046700632634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1301,8 +1438,20 @@
       <c r="D35" s="1">
         <v>0.36499999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37982795265491592</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15117152515665655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1315,8 +1464,20 @@
       <c r="D36" s="1">
         <v>0.94499999999999995</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.82824923089216518</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39176188621199409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1329,8 +1490,20 @@
       <c r="D37" s="1">
         <v>1.093</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89445127607706088</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45348679697106986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,8 +1516,20 @@
       <c r="D38" s="1">
         <v>1.3220000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.74161091832719217</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.54805046864379503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1357,8 +1542,20 @@
       <c r="D39" s="1">
         <v>1.224</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62962991085665687</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50748170815046545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1371,8 +1568,20 @@
       <c r="D40" s="1">
         <v>1.2130000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97701244226600059</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50316140776699037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1385,8 +1594,20 @@
       <c r="D41" s="1">
         <v>0.98299999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81994462572925952</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40751247898744197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1399,8 +1620,20 @@
       <c r="D42" s="1">
         <v>1.0209999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>1.59457328564286</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42256192069535792</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1413,9 +1646,21 @@
       <c r="D43" s="1">
         <v>0.73299999999999998</v>
       </c>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>41.460500000000003</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92640881262010111</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30386209053939317</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+  <sortState ref="A2:D43">
     <sortCondition descending="1" ref="D2:D43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1425,11 +1670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1731,14 +1976,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B2BE0F-A4A0-4B22-B541-FC3B3D53E38D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1762,12 +2010,6 @@
       <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1783,23 +2025,18 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="E2" s="1">
-        <f>MEDIAN(C$2:C$11)</f>
-        <v>39.89</v>
+        <f>MEDIAN(C$2:C$22)</f>
+        <v>44.587000000000003</v>
       </c>
       <c r="F2" s="2">
         <f>E2/C2</f>
-        <v>1.837656055650251</v>
+        <v>2.0540378679688582</v>
       </c>
       <c r="G2" s="1">
         <f>B2*F2</f>
-        <v>0.41347261252130652</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>1.837656055650251</v>
-      </c>
+        <v>0.46215852029299309</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1815,23 +2052,18 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E11" si="0">MEDIAN(C$2:C$11)</f>
-        <v>39.89</v>
+        <f t="shared" ref="E3:E22" si="0">MEDIAN(C$2:C$22)</f>
+        <v>44.587000000000003</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F11" si="1">E3/C3</f>
-        <v>1.3076544828716605</v>
+        <f t="shared" ref="F3" si="1">E3/C3</f>
+        <v>1.4616292411080152</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G11" si="2">B3*F3</f>
-        <v>0.41191116210457307</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3">
-        <v>1.3076544828716605</v>
-      </c>
+        <f t="shared" ref="G3" si="2">B3*F3</f>
+        <v>0.46041321094902476</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1847,23 +2079,18 @@
         <v>0.89600000000000002</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E22" si="3">MEDIAN(C$2:C$11)</f>
-        <v>39.89</v>
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F22" si="4">E4/C4</f>
-        <v>1.5160959294591616</v>
+        <f t="shared" ref="F4:F22" si="3">E4/C4</f>
+        <v>1.6946144198244082</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G22" si="5">B4*F4</f>
-        <v>0.35779863935236211</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>1.5160959294591616</v>
-      </c>
+        <f t="shared" ref="G4:G22" si="4">B4*F4</f>
+        <v>0.39992900307856033</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1879,23 +2106,18 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="4"/>
-        <v>0.89465539282750572</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="5"/>
-        <v>0.33907439388162469</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>0.89465539282750572</v>
-      </c>
+        <v>0.379</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1911,23 +2133,18 @@
         <v>0.621</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F6" s="2">
+        <v>1.0673640868503578</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="4"/>
-        <v>0.9549230364110789</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="5"/>
-        <v>0.24732506643046945</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6">
-        <v>0.9549230364110789</v>
-      </c>
+        <v>0.27644729849424265</v>
+      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1943,23 +2160,18 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F7" s="2">
+        <v>1.537429743801938</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="4"/>
-        <v>1.3754698113858141</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="5"/>
-        <v>0.3933843660563428</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>1.3754698113858141</v>
-      </c>
+        <v>0.43970490672735424</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1975,23 +2187,18 @@
         <v>1.345</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F8" s="2">
+        <v>1.1731260031046913</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>1.0495435051437894</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="5"/>
-        <v>0.53631673112847633</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>1.0495435051437894</v>
-      </c>
+        <v>0.5994673875864972</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2007,23 +2214,18 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F9" s="2">
+        <v>0.98200599066161576</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>0.87855695533433176</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="5"/>
-        <v>0.32330895956303407</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9">
-        <v>0.87855695533433176</v>
-      </c>
+        <v>0.36137820456347458</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2039,23 +2241,18 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F10" s="2">
+        <v>1.0274212503168423</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="4"/>
-        <v>0.91918796230154165</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="5"/>
-        <v>0.38330138027974286</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>0.91918796230154165</v>
-      </c>
+        <v>0.42843466138212322</v>
+      </c>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2071,23 +2268,18 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F11" s="2">
+        <v>0.8725611068709761</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="4"/>
-        <v>0.78064149983365627</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="5"/>
-        <v>0.19125716745924579</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11">
-        <v>0.78064149983365627</v>
-      </c>
+        <v>0.21377747118338913</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2103,23 +2295,18 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F12" s="2">
+        <v>0.66864118291018704</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="4"/>
-        <v>0.59820344015716143</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="5"/>
-        <v>0.29192327879669477</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12">
-        <v>0.59820344015716143</v>
-      </c>
+        <v>0.32629689726017125</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2135,23 +2322,18 @@
         <v>0.91</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F13" s="2">
+        <v>1.0050945650458738</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="4"/>
-        <v>0.89921327291990716</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="5"/>
-        <v>0.36328216225964249</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13">
-        <v>0.89921327291990716</v>
-      </c>
+        <v>0.40605820427853306</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2167,23 +2349,18 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F14" s="2">
+        <v>0.9526933185188351</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>0.85233221512360846</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41167645990470286</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>0.85233221512360846</v>
-      </c>
+        <v>0.46015087284459733</v>
+      </c>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2199,23 +2376,18 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F15" s="2">
+        <v>1.4240043435214462</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>1.273993165341254</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="5"/>
-        <v>0.28664846220178214</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15">
-        <v>1.273993165341254</v>
-      </c>
+        <v>0.32040097729232542</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2231,23 +2403,18 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F16" s="2">
+        <v>1.1133945962143537</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>0.99610447984817463</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="5"/>
-        <v>0.1334780002996554</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16">
-        <v>0.99610447984817463</v>
-      </c>
+        <v>0.1491948758927234</v>
+      </c>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2263,23 +2430,18 @@
         <v>0.53</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F17" s="2">
+        <v>0.75780546254907633</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="4"/>
-        <v>0.67797474378367351</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="5"/>
-        <v>0.21152812006050614</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17">
-        <v>0.67797474378367351</v>
-      </c>
+        <v>0.23643530431531182</v>
+      </c>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2295,23 +2457,18 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F18" s="2">
+        <v>0.40847044596723958</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>0.36544028729524713</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="5"/>
-        <v>0.14544523434350837</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18">
-        <v>0.36544028729524713</v>
-      </c>
+        <v>0.16257123749496136</v>
+      </c>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2327,23 +2484,18 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F19" s="2">
+        <v>0.89070678013504345</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="4"/>
-        <v>0.79687562427584002</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37692217028247232</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19">
-        <v>0.79687562427584002</v>
-      </c>
+        <v>0.42130430700387556</v>
+      </c>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2359,23 +2511,18 @@
         <v>1.224</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F20" s="2">
+        <v>0.67710975109720728</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>0.60577989035520663</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="5"/>
-        <v>0.48825859162629659</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0.60577989035520663</v>
-      </c>
+        <v>0.54575045938434907</v>
+      </c>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2391,23 +2538,18 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F21" s="2">
+        <v>0.88177593196875315</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>0.78888559280134485</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="5"/>
-        <v>0.39207613962226839</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21">
-        <v>0.78888559280134485</v>
-      </c>
+        <v>0.43824263818847031</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2423,26 +2565,22 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>44.587000000000003</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>39.89</v>
-      </c>
-      <c r="F22" s="2">
+        <v>0.99626848996737738</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>0.89131697725342995</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="5"/>
-        <v>0.29235196853912504</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22">
-        <v>0.89131697725342995</v>
-      </c>
+        <v>0.32677606470929982</v>
+      </c>
+      <c r="J22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>